--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,36 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\laYudi-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96860262-E8B7-4E7A-A339-F22E670CEC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,15 +85,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,108 +417,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="52.42578125" defaultRowHeight="53.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="52.42578125" defaultRowHeight="53.25" customHeight="1"/>
   <sheetData>
-    <row customHeight="1" ht="53.25" r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>HDFK</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>[prueba]</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>prueba prueba</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>no enviado</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="53.25" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sena</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[prueba]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>prueba mas</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>enviado</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="53.25" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>hahahaha</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[prueba]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>prueba prueba</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no enviado</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="53.25" r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>nieto</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[prueba]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>prueba prueba</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>enviado</t>
-        </is>
-      </c>
+    <row r="1" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="E51" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>